--- a/Finalize logic tree/Dodge_Ram 1500_ABS light on.xlsx
+++ b/Finalize logic tree/Dodge_Ram 1500_ABS light on.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E7A383-4AFE-4B61-A696-F4BC9A3162CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD1DA4-D616-4939-B94A-9A7F674FF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{143C8596-CF63-404F-85BE-B1AB0E446760}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>Stop &amp; Go</t>
-  </si>
-  <si>
     <t>Freeway</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Problem:Does the yellow ABS light generally light up when driving in freeway/highway or in stop/go traffic or does it seem like its on all the time?</t>
+  </si>
+  <si>
+    <t>Stop and Go</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE3F4C8-8D28-4665-B827-293BFE15906F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,15 +535,15 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="5" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -565,18 +565,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -587,29 +587,29 @@
     </row>
     <row r="8" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -620,40 +620,40 @@
     </row>
     <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -675,24 +675,24 @@
     </row>
     <row r="16" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
